--- a/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD2/LR-pairs_lrc2p/Cirbp-Trem1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="92" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -455,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T19"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -534,7 +534,7 @@
         <v>27</v>
       </c>
       <c r="D2" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E2">
         <v>3</v>
@@ -543,46 +543,46 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>8.348115333333332</v>
+        <v>15.34461833333333</v>
       </c>
       <c r="H2">
-        <v>25.044346</v>
+        <v>46.033855</v>
       </c>
       <c r="I2">
-        <v>0.1946169345259831</v>
+        <v>0.3814310661891127</v>
       </c>
       <c r="J2">
-        <v>0.194616934525983</v>
+        <v>0.3814310661891126</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>7.990118666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N2">
-        <v>23.970356</v>
+        <v>0.694584</v>
       </c>
       <c r="O2">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P2">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q2">
-        <v>66.70243215635288</v>
+        <v>3.55270879348</v>
       </c>
       <c r="R2">
-        <v>600.3218894071759</v>
+        <v>31.97437914132</v>
       </c>
       <c r="S2">
-        <v>0.007616799574214513</v>
+        <v>0.0003115341509625375</v>
       </c>
       <c r="T2">
-        <v>0.007616799574214511</v>
+        <v>0.0003115341509625375</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,7 +596,7 @@
         <v>27</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>3</v>
@@ -605,16 +605,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>8.348115333333332</v>
+        <v>15.34461833333333</v>
       </c>
       <c r="H3">
-        <v>25.044346</v>
+        <v>46.033855</v>
       </c>
       <c r="I3">
-        <v>0.1946169345259831</v>
+        <v>0.3814310661891127</v>
       </c>
       <c r="J3">
-        <v>0.194616934525983</v>
+        <v>0.3814310661891126</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -623,28 +623,28 @@
         <v>1</v>
       </c>
       <c r="M3">
-        <v>194.9392826666666</v>
+        <v>19.926526</v>
       </c>
       <c r="N3">
-        <v>584.8178479999999</v>
+        <v>59.779578</v>
       </c>
       <c r="O3">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P3">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q3">
-        <v>1627.3756146986</v>
+        <v>305.7649361792434</v>
       </c>
       <c r="R3">
-        <v>14646.38053228741</v>
+        <v>2751.88442561319</v>
       </c>
       <c r="S3">
-        <v>0.1858312131717796</v>
+        <v>0.02681227911545441</v>
       </c>
       <c r="T3">
-        <v>0.1858312131717796</v>
+        <v>0.02681227911545441</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,7 +658,7 @@
         <v>27</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="E4">
         <v>3</v>
@@ -667,51 +667,51 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>8.348115333333332</v>
+        <v>15.34461833333333</v>
       </c>
       <c r="H4">
-        <v>25.044346</v>
+        <v>46.033855</v>
       </c>
       <c r="I4">
-        <v>0.1946169345259831</v>
+        <v>0.3814310661891127</v>
       </c>
       <c r="J4">
-        <v>0.194616934525983</v>
+        <v>0.3814310661891126</v>
       </c>
       <c r="K4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M4">
-        <v>1.226213666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N4">
-        <v>3.678641</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O4">
-        <v>0.006006269612847371</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P4">
-        <v>0.00600626961284737</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q4">
-        <v>10.23657311264289</v>
+        <v>3997.89690106193</v>
       </c>
       <c r="R4">
-        <v>92.12915801378598</v>
+        <v>35981.07210955737</v>
       </c>
       <c r="S4">
-        <v>0.001168921779988918</v>
+        <v>0.350572334831895</v>
       </c>
       <c r="T4">
-        <v>0.001168921779988918</v>
+        <v>0.3505723348318949</v>
       </c>
     </row>
     <row r="5" spans="1:20">
       <c r="A5" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B5" t="s">
         <v>26</v>
@@ -720,7 +720,7 @@
         <v>27</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>25</v>
       </c>
       <c r="E5">
         <v>3</v>
@@ -729,46 +729,46 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>6.181162333333333</v>
+        <v>15.34461833333333</v>
       </c>
       <c r="H5">
-        <v>18.543487</v>
+        <v>46.033855</v>
       </c>
       <c r="I5">
-        <v>0.144099454438236</v>
+        <v>0.3814310661891127</v>
       </c>
       <c r="J5">
-        <v>0.144099454438236</v>
+        <v>0.3814310661891126</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M5">
-        <v>7.990118666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N5">
-        <v>23.970356</v>
+        <v>8.327223</v>
       </c>
       <c r="O5">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P5">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q5">
-        <v>49.38822054126355</v>
+        <v>42.59268623718501</v>
       </c>
       <c r="R5">
-        <v>444.4939848713719</v>
+        <v>383.334176134665</v>
       </c>
       <c r="S5">
-        <v>0.005639677070667063</v>
+        <v>0.003734918090800703</v>
       </c>
       <c r="T5">
-        <v>0.005639677070667061</v>
+        <v>0.003734918090800701</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,7 +782,7 @@
         <v>27</v>
       </c>
       <c r="D6" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E6">
         <v>3</v>
@@ -797,40 +797,40 @@
         <v>18.543487</v>
       </c>
       <c r="I6">
-        <v>0.144099454438236</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="J6">
-        <v>0.144099454438236</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="K6">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L6">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M6">
-        <v>194.9392826666666</v>
+        <v>0.231528</v>
       </c>
       <c r="N6">
-        <v>584.8178479999999</v>
+        <v>0.694584</v>
       </c>
       <c r="O6">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P6">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q6">
-        <v>1204.951351306219</v>
+        <v>1.431112152712</v>
       </c>
       <c r="R6">
-        <v>10844.56216175597</v>
+        <v>12.880009374408</v>
       </c>
       <c r="S6">
-        <v>0.1375942771931487</v>
+        <v>0.0001254930632776649</v>
       </c>
       <c r="T6">
-        <v>0.1375942771931487</v>
+        <v>0.0001254930632776649</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -844,7 +844,7 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -859,45 +859,45 @@
         <v>18.543487</v>
       </c>
       <c r="I7">
-        <v>0.144099454438236</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="J7">
-        <v>0.144099454438236</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="K7">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L7">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M7">
-        <v>1.226213666666667</v>
+        <v>19.926526</v>
       </c>
       <c r="N7">
-        <v>3.678641</v>
+        <v>59.779578</v>
       </c>
       <c r="O7">
-        <v>0.006006269612847371</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P7">
-        <v>0.00600626961284737</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q7">
-        <v>7.579425729018554</v>
+        <v>123.1690919453873</v>
       </c>
       <c r="R7">
-        <v>68.21483156116699</v>
+        <v>1108.521827508486</v>
       </c>
       <c r="S7">
-        <v>0.0008655001744202612</v>
+        <v>0.01080059771700198</v>
       </c>
       <c r="T7">
-        <v>0.000865500174420261</v>
+        <v>0.01080059771700198</v>
       </c>
     </row>
     <row r="8" spans="1:20">
       <c r="A8" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B8" t="s">
         <v>26</v>
@@ -906,7 +906,7 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -915,51 +915,51 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>3.974084666666667</v>
+        <v>6.181162333333333</v>
       </c>
       <c r="H8">
-        <v>11.922254</v>
+        <v>18.543487</v>
       </c>
       <c r="I8">
-        <v>0.09264656086927324</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="J8">
-        <v>0.09264656086927324</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M8">
-        <v>7.990118666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N8">
-        <v>23.970356</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O8">
-        <v>0.03913739363311985</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P8">
-        <v>0.03913739363311985</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q8">
-        <v>31.75340807804711</v>
+        <v>1610.44407886722</v>
       </c>
       <c r="R8">
-        <v>285.780672702424</v>
+        <v>14493.99670980498</v>
       </c>
       <c r="S8">
-        <v>0.003625944921495546</v>
+        <v>0.1412185343485765</v>
       </c>
       <c r="T8">
-        <v>0.003625944921495545</v>
+        <v>0.1412185343485765</v>
       </c>
     </row>
     <row r="9" spans="1:20">
       <c r="A9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B9" t="s">
         <v>26</v>
@@ -968,7 +968,7 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -977,16 +977,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>3.974084666666667</v>
+        <v>6.181162333333333</v>
       </c>
       <c r="H9">
-        <v>11.922254</v>
+        <v>18.543487</v>
       </c>
       <c r="I9">
-        <v>0.09264656086927324</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="J9">
-        <v>0.09264656086927324</v>
+        <v>0.1536491353434108</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -995,28 +995,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>194.9392826666666</v>
+        <v>2.775741</v>
       </c>
       <c r="N9">
-        <v>584.8178479999999</v>
+        <v>8.327223</v>
       </c>
       <c r="O9">
-        <v>0.9548563367540328</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P9">
-        <v>0.9548563367540328</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q9">
-        <v>774.7052141765989</v>
+        <v>17.157305716289</v>
       </c>
       <c r="R9">
-        <v>6972.346927589391</v>
+        <v>154.415751446601</v>
       </c>
       <c r="S9">
-        <v>0.08846415572449377</v>
+        <v>0.00150451021455465</v>
       </c>
       <c r="T9">
-        <v>0.08846415572449377</v>
+        <v>0.001504510214554649</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,7 +1030,7 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E10">
         <v>3</v>
@@ -1039,51 +1039,51 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>3.974084666666667</v>
+        <v>2.546178</v>
       </c>
       <c r="H10">
-        <v>11.922254</v>
+        <v>7.638534</v>
       </c>
       <c r="I10">
-        <v>0.09264656086927324</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="J10">
-        <v>0.09264656086927324</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="K10">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L10">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M10">
-        <v>1.226213666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N10">
-        <v>3.678641</v>
+        <v>0.694584</v>
       </c>
       <c r="O10">
-        <v>0.006006269612847371</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P10">
-        <v>0.00600626961284737</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q10">
-        <v>4.873076930757111</v>
+        <v>0.5895114999839999</v>
       </c>
       <c r="R10">
-        <v>43.857692376814</v>
+        <v>5.305603499856</v>
       </c>
       <c r="S10">
-        <v>0.0005564602232839301</v>
+        <v>5.169378502600912E-05</v>
       </c>
       <c r="T10">
-        <v>0.00055646022328393</v>
+        <v>5.169378502600912E-05</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" t="s">
         <v>26</v>
@@ -1101,51 +1101,51 @@
         <v>1</v>
       </c>
       <c r="G11">
-        <v>9.133889000000002</v>
+        <v>2.546178</v>
       </c>
       <c r="H11">
-        <v>27.401667</v>
+        <v>7.638534</v>
       </c>
       <c r="I11">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="J11">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="K11">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L11">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M11">
-        <v>7.990118666666667</v>
+        <v>19.926526</v>
       </c>
       <c r="N11">
-        <v>23.970356</v>
+        <v>59.779578</v>
       </c>
       <c r="O11">
-        <v>0.03913739363311985</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P11">
-        <v>0.03913739363311985</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q11">
-        <v>72.98085699816134</v>
+        <v>50.73648211762799</v>
       </c>
       <c r="R11">
-        <v>656.8277129834521</v>
+        <v>456.628339058652</v>
       </c>
       <c r="S11">
-        <v>0.008333737504599559</v>
+        <v>0.004449040942603838</v>
       </c>
       <c r="T11">
-        <v>0.008333737504599556</v>
+        <v>0.004449040942603838</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B12" t="s">
         <v>26</v>
@@ -1163,16 +1163,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>9.133889000000002</v>
+        <v>2.546178</v>
       </c>
       <c r="H12">
-        <v>27.401667</v>
+        <v>7.638534</v>
       </c>
       <c r="I12">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="J12">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1181,33 +1181,33 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>194.9392826666666</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N12">
-        <v>584.8178479999999</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O12">
-        <v>0.9548563367540328</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P12">
-        <v>0.9548563367540328</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q12">
-        <v>1780.553769616957</v>
+        <v>663.382882169138</v>
       </c>
       <c r="R12">
-        <v>16024.98392655262</v>
+        <v>5970.445939522242</v>
       </c>
       <c r="S12">
-        <v>0.2033227388544752</v>
+        <v>0.05817150658081566</v>
       </c>
       <c r="T12">
-        <v>0.2033227388544752</v>
+        <v>0.05817150658081565</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B13" t="s">
         <v>26</v>
@@ -1225,51 +1225,51 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>9.133889000000002</v>
+        <v>2.546178</v>
       </c>
       <c r="H13">
-        <v>27.401667</v>
+        <v>7.638534</v>
       </c>
       <c r="I13">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="J13">
-        <v>0.212935423925296</v>
+        <v>0.06329198733718448</v>
       </c>
       <c r="K13">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L13">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M13">
-        <v>1.226213666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N13">
-        <v>3.678641</v>
+        <v>8.327223</v>
       </c>
       <c r="O13">
-        <v>0.006006269612847371</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P13">
-        <v>0.00600626961284737</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q13">
-        <v>11.20009952161633</v>
+        <v>7.067530667898</v>
       </c>
       <c r="R13">
-        <v>100.800895694547</v>
+        <v>63.607776011082</v>
       </c>
       <c r="S13">
-        <v>0.001278947566221279</v>
+        <v>0.0006197460287389845</v>
       </c>
       <c r="T13">
-        <v>0.001278947566221278</v>
+        <v>0.0006197460287389844</v>
       </c>
     </row>
     <row r="14" spans="1:20">
       <c r="A14" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B14" t="s">
         <v>26</v>
@@ -1278,7 +1278,7 @@
         <v>27</v>
       </c>
       <c r="D14" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="E14">
         <v>3</v>
@@ -1287,51 +1287,51 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7.957074333333334</v>
+        <v>4.312996666666667</v>
       </c>
       <c r="H14">
-        <v>23.871223</v>
+        <v>12.93899</v>
       </c>
       <c r="I14">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="J14">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="K14">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L14">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M14">
-        <v>7.990118666666667</v>
+        <v>0.231528</v>
       </c>
       <c r="N14">
-        <v>23.970356</v>
+        <v>0.694584</v>
       </c>
       <c r="O14">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P14">
-        <v>0.03913739363311985</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q14">
-        <v>63.57796816282089</v>
+        <v>0.99857949224</v>
       </c>
       <c r="R14">
-        <v>572.201713465388</v>
+        <v>8.987215430160001</v>
       </c>
       <c r="S14">
-        <v>0.00726001474274392</v>
+        <v>8.756462529507389E-05</v>
       </c>
       <c r="T14">
-        <v>0.007260014742743917</v>
+        <v>8.756462529507387E-05</v>
       </c>
     </row>
     <row r="15" spans="1:20">
       <c r="A15" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B15" t="s">
         <v>26</v>
@@ -1340,7 +1340,7 @@
         <v>27</v>
       </c>
       <c r="D15" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E15">
         <v>3</v>
@@ -1349,16 +1349,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7.957074333333334</v>
+        <v>4.312996666666667</v>
       </c>
       <c r="H15">
-        <v>23.871223</v>
+        <v>12.93899</v>
       </c>
       <c r="I15">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="J15">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1367,43 +1367,43 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>194.9392826666666</v>
+        <v>19.926526</v>
       </c>
       <c r="N15">
-        <v>584.8178479999999</v>
+        <v>59.779578</v>
       </c>
       <c r="O15">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="P15">
-        <v>0.9548563367540328</v>
+        <v>0.07029390495990945</v>
       </c>
       <c r="Q15">
-        <v>1551.146362665345</v>
+        <v>85.94304021624667</v>
       </c>
       <c r="R15">
-        <v>13960.3172639881</v>
+        <v>773.4873619462201</v>
       </c>
       <c r="S15">
-        <v>0.1771265390593186</v>
+        <v>0.007536275451014769</v>
       </c>
       <c r="T15">
-        <v>0.1771265390593186</v>
+        <v>0.007536275451014768</v>
       </c>
     </row>
     <row r="16" spans="1:20">
       <c r="A16" t="s">
+        <v>23</v>
+      </c>
+      <c r="B16" t="s">
+        <v>26</v>
+      </c>
+      <c r="C16" t="s">
+        <v>27</v>
+      </c>
+      <c r="D16" t="s">
         <v>24</v>
       </c>
-      <c r="B16" t="s">
-        <v>26</v>
-      </c>
-      <c r="C16" t="s">
-        <v>27</v>
-      </c>
-      <c r="D16" t="s">
-        <v>25</v>
-      </c>
       <c r="E16">
         <v>3</v>
       </c>
@@ -1411,61 +1411,61 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7.957074333333334</v>
+        <v>4.312996666666667</v>
       </c>
       <c r="H16">
-        <v>23.871223</v>
+        <v>12.93899</v>
       </c>
       <c r="I16">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="J16">
-        <v>0.1855007211466469</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="K16">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L16">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M16">
-        <v>1.226213666666667</v>
+        <v>260.5406543333334</v>
       </c>
       <c r="N16">
-        <v>3.678641</v>
+        <v>781.6219630000001</v>
       </c>
       <c r="O16">
-        <v>0.006006269612847371</v>
+        <v>0.9190974881371673</v>
       </c>
       <c r="P16">
-        <v>0.00600626961284737</v>
+        <v>0.9190974881371672</v>
       </c>
       <c r="Q16">
-        <v>9.757073294215889</v>
+        <v>1123.710973670819</v>
       </c>
       <c r="R16">
-        <v>87.813659647943</v>
+        <v>10113.39876303737</v>
       </c>
       <c r="S16">
-        <v>0.001114167344584379</v>
+        <v>0.09853730335351105</v>
       </c>
       <c r="T16">
-        <v>0.001114167344584379</v>
+        <v>0.09853730335351102</v>
       </c>
     </row>
     <row r="17" spans="1:20">
       <c r="A17" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+      <c r="C17" t="s">
+        <v>27</v>
+      </c>
+      <c r="D17" t="s">
         <v>25</v>
       </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-      <c r="C17" t="s">
-        <v>27</v>
-      </c>
-      <c r="D17" t="s">
-        <v>22</v>
-      </c>
       <c r="E17">
         <v>3</v>
       </c>
@@ -1473,51 +1473,51 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>7.300787</v>
+        <v>4.312996666666667</v>
       </c>
       <c r="H17">
-        <v>21.902361</v>
+        <v>12.93899</v>
       </c>
       <c r="I17">
-        <v>0.1702009050945649</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="J17">
-        <v>0.1702009050945648</v>
+        <v>0.107210937496116</v>
       </c>
       <c r="K17">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L17">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="M17">
-        <v>7.990118666666667</v>
+        <v>2.775741</v>
       </c>
       <c r="N17">
-        <v>23.970356</v>
+        <v>8.327223</v>
       </c>
       <c r="O17">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914731</v>
       </c>
       <c r="P17">
-        <v>0.03913739363311985</v>
+        <v>0.009791856043914729</v>
       </c>
       <c r="Q17">
-        <v>58.33415449005733</v>
+        <v>11.97176168053</v>
       </c>
       <c r="R17">
-        <v>525.007390410516</v>
+        <v>107.74585512477</v>
       </c>
       <c r="S17">
-        <v>0.00666121981939926</v>
+        <v>0.001049794066295108</v>
       </c>
       <c r="T17">
-        <v>0.006661219819399257</v>
+        <v>0.001049794066295107</v>
       </c>
     </row>
     <row r="18" spans="1:20">
       <c r="A18" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B18" t="s">
         <v>26</v>
@@ -1526,7 +1526,7 @@
         <v>27</v>
       </c>
       <c r="D18" t="s">
-        <v>24</v>
+        <v>20</v>
       </c>
       <c r="E18">
         <v>3</v>
@@ -1535,108 +1535,480 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>7.300787</v>
+        <v>9.669722</v>
       </c>
       <c r="H18">
-        <v>21.902361</v>
+        <v>29.009166</v>
       </c>
       <c r="I18">
-        <v>0.1702009050945649</v>
+        <v>0.2403665110522887</v>
       </c>
       <c r="J18">
-        <v>0.1702009050945648</v>
+        <v>0.2403665110522887</v>
       </c>
       <c r="K18">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L18">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M18">
-        <v>194.9392826666666</v>
+        <v>0.231528</v>
       </c>
       <c r="N18">
-        <v>584.8178479999999</v>
+        <v>0.694584</v>
       </c>
       <c r="O18">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="P18">
-        <v>0.9548563367540328</v>
+        <v>0.0008167508590086357</v>
       </c>
       <c r="Q18">
-        <v>1423.210180682125</v>
+        <v>2.238811395216</v>
       </c>
       <c r="R18">
-        <v>12808.89162613913</v>
+        <v>20.149302556944</v>
       </c>
       <c r="S18">
-        <v>0.162517412750817</v>
+        <v>0.0001963195543788655</v>
       </c>
       <c r="T18">
-        <v>0.162517412750817</v>
+        <v>0.0001963195543788655</v>
       </c>
     </row>
     <row r="19" spans="1:20">
       <c r="A19" t="s">
+        <v>24</v>
+      </c>
+      <c r="B19" t="s">
+        <v>26</v>
+      </c>
+      <c r="C19" t="s">
+        <v>27</v>
+      </c>
+      <c r="D19" t="s">
+        <v>22</v>
+      </c>
+      <c r="E19">
+        <v>3</v>
+      </c>
+      <c r="F19">
+        <v>1</v>
+      </c>
+      <c r="G19">
+        <v>9.669722</v>
+      </c>
+      <c r="H19">
+        <v>29.009166</v>
+      </c>
+      <c r="I19">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="J19">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>19.926526</v>
+      </c>
+      <c r="N19">
+        <v>59.779578</v>
+      </c>
+      <c r="O19">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="P19">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="Q19">
+        <v>192.683966845772</v>
+      </c>
+      <c r="R19">
+        <v>1734.155701611948</v>
+      </c>
+      <c r="S19">
+        <v>0.0168963006834546</v>
+      </c>
+      <c r="T19">
+        <v>0.0168963006834546</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>24</v>
+      </c>
+      <c r="B20" t="s">
+        <v>26</v>
+      </c>
+      <c r="C20" t="s">
+        <v>27</v>
+      </c>
+      <c r="D20" t="s">
+        <v>24</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>9.669722</v>
+      </c>
+      <c r="H20">
+        <v>29.009166</v>
+      </c>
+      <c r="I20">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="J20">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>260.5406543333334</v>
+      </c>
+      <c r="N20">
+        <v>781.6219630000001</v>
+      </c>
+      <c r="O20">
+        <v>0.9190974881371673</v>
+      </c>
+      <c r="P20">
+        <v>0.9190974881371672</v>
+      </c>
+      <c r="Q20">
+        <v>2519.355697101429</v>
+      </c>
+      <c r="R20">
+        <v>22674.20127391286</v>
+      </c>
+      <c r="S20">
+        <v>0.2209202565404532</v>
+      </c>
+      <c r="T20">
+        <v>0.2209202565404532</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21" t="s">
+        <v>26</v>
+      </c>
+      <c r="C21" t="s">
+        <v>27</v>
+      </c>
+      <c r="D21" t="s">
         <v>25</v>
       </c>
-      <c r="B19" t="s">
-        <v>26</v>
-      </c>
-      <c r="C19" t="s">
-        <v>27</v>
-      </c>
-      <c r="D19" t="s">
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>9.669722</v>
+      </c>
+      <c r="H21">
+        <v>29.009166</v>
+      </c>
+      <c r="I21">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="J21">
+        <v>0.2403665110522887</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.775741</v>
+      </c>
+      <c r="N21">
+        <v>8.327223</v>
+      </c>
+      <c r="O21">
+        <v>0.009791856043914731</v>
+      </c>
+      <c r="P21">
+        <v>0.009791856043914729</v>
+      </c>
+      <c r="Q21">
+        <v>26.840643814002</v>
+      </c>
+      <c r="R21">
+        <v>241.565794326018</v>
+      </c>
+      <c r="S21">
+        <v>0.00235363427400205</v>
+      </c>
+      <c r="T21">
+        <v>0.00235363427400205</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
         <v>25</v>
       </c>
-      <c r="E19">
-        <v>3</v>
-      </c>
-      <c r="F19">
-        <v>1</v>
-      </c>
-      <c r="G19">
-        <v>7.300787</v>
-      </c>
-      <c r="H19">
-        <v>21.902361</v>
-      </c>
-      <c r="I19">
-        <v>0.1702009050945649</v>
-      </c>
-      <c r="J19">
-        <v>0.1702009050945648</v>
-      </c>
-      <c r="K19">
-        <v>2</v>
-      </c>
-      <c r="L19">
-        <v>0.6666666666666666</v>
-      </c>
-      <c r="M19">
-        <v>1.226213666666667</v>
-      </c>
-      <c r="N19">
-        <v>3.678641</v>
-      </c>
-      <c r="O19">
-        <v>0.006006269612847371</v>
-      </c>
-      <c r="P19">
-        <v>0.00600626961284737</v>
-      </c>
-      <c r="Q19">
-        <v>8.952324796822332</v>
-      </c>
-      <c r="R19">
-        <v>80.57092317140099</v>
-      </c>
-      <c r="S19">
-        <v>0.001022272524348604</v>
-      </c>
-      <c r="T19">
-        <v>0.001022272524348604</v>
+      <c r="B22" t="s">
+        <v>26</v>
+      </c>
+      <c r="C22" t="s">
+        <v>27</v>
+      </c>
+      <c r="D22" t="s">
+        <v>20</v>
+      </c>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>2.174396</v>
+      </c>
+      <c r="H22">
+        <v>6.523188</v>
+      </c>
+      <c r="I22">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="J22">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="K22">
+        <v>1</v>
+      </c>
+      <c r="L22">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M22">
+        <v>0.231528</v>
+      </c>
+      <c r="N22">
+        <v>0.694584</v>
+      </c>
+      <c r="O22">
+        <v>0.0008167508590086357</v>
+      </c>
+      <c r="P22">
+        <v>0.0008167508590086357</v>
+      </c>
+      <c r="Q22">
+        <v>0.503433557088</v>
+      </c>
+      <c r="R22">
+        <v>4.530902013792</v>
+      </c>
+      <c r="S22">
+        <v>4.414568006848467E-05</v>
+      </c>
+      <c r="T22">
+        <v>4.414568006848466E-05</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>25</v>
+      </c>
+      <c r="B23" t="s">
+        <v>26</v>
+      </c>
+      <c r="C23" t="s">
+        <v>27</v>
+      </c>
+      <c r="D23" t="s">
+        <v>22</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>2.174396</v>
+      </c>
+      <c r="H23">
+        <v>6.523188</v>
+      </c>
+      <c r="I23">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="J23">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="K23">
+        <v>3</v>
+      </c>
+      <c r="L23">
+        <v>1</v>
+      </c>
+      <c r="M23">
+        <v>19.926526</v>
+      </c>
+      <c r="N23">
+        <v>59.779578</v>
+      </c>
+      <c r="O23">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="P23">
+        <v>0.07029390495990945</v>
+      </c>
+      <c r="Q23">
+        <v>43.328158428296</v>
+      </c>
+      <c r="R23">
+        <v>389.953425854664</v>
+      </c>
+      <c r="S23">
+        <v>0.003799411050379831</v>
+      </c>
+      <c r="T23">
+        <v>0.003799411050379831</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>25</v>
+      </c>
+      <c r="B24" t="s">
+        <v>26</v>
+      </c>
+      <c r="C24" t="s">
+        <v>27</v>
+      </c>
+      <c r="D24" t="s">
+        <v>24</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>2.174396</v>
+      </c>
+      <c r="H24">
+        <v>6.523188</v>
+      </c>
+      <c r="I24">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="J24">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>260.5406543333334</v>
+      </c>
+      <c r="N24">
+        <v>781.6219630000001</v>
+      </c>
+      <c r="O24">
+        <v>0.9190974881371673</v>
+      </c>
+      <c r="P24">
+        <v>0.9190974881371672</v>
+      </c>
+      <c r="Q24">
+        <v>566.5185566197828</v>
+      </c>
+      <c r="R24">
+        <v>5098.667009578045</v>
+      </c>
+      <c r="S24">
+        <v>0.04967755248191575</v>
+      </c>
+      <c r="T24">
+        <v>0.04967755248191574</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>25</v>
+      </c>
+      <c r="B25" t="s">
+        <v>26</v>
+      </c>
+      <c r="C25" t="s">
+        <v>27</v>
+      </c>
+      <c r="D25" t="s">
+        <v>25</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>2.174396</v>
+      </c>
+      <c r="H25">
+        <v>6.523188</v>
+      </c>
+      <c r="I25">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="J25">
+        <v>0.05405036258188729</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>2.775741</v>
+      </c>
+      <c r="N25">
+        <v>8.327223</v>
+      </c>
+      <c r="O25">
+        <v>0.009791856043914731</v>
+      </c>
+      <c r="P25">
+        <v>0.009791856043914729</v>
+      </c>
+      <c r="Q25">
+        <v>6.035560127436001</v>
+      </c>
+      <c r="R25">
+        <v>54.32004114692401</v>
+      </c>
+      <c r="S25">
+        <v>0.0005292533695232357</v>
+      </c>
+      <c r="T25">
+        <v>0.0005292533695232355</v>
       </c>
     </row>
   </sheetData>
